--- a/My Models/Costco.xlsx
+++ b/My Models/Costco.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Models\My Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FF729A-7327-4690-A4A7-CB803C709CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCBB4A8-554A-4D50-B17D-B62B6976CB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B8663242-CA81-4660-AA18-4DB1AF35A221}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{B8663242-CA81-4660-AA18-4DB1AF35A221}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Revenue</t>
   </si>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>Rates</t>
+  </si>
+  <si>
+    <t>Average Revenue per Store (m)</t>
+  </si>
+  <si>
+    <t>Average NI per Store</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>What does a single store unit economics look like?</t>
   </si>
 </sst>
 </file>
@@ -144,7 +156,7 @@
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -223,8 +235,8 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="42" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -564,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4F01C0F-6A24-4222-9D32-BA71AF6BE63A}">
   <dimension ref="B1:AC35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -803,27 +815,27 @@
         <v>3</v>
       </c>
       <c r="C10" s="2">
-        <f>SUM(C8:C9)</f>
+        <f t="shared" ref="C10:H10" si="0">SUM(C8:C9)</f>
         <v>141576</v>
       </c>
       <c r="D10" s="2">
-        <f>SUM(D8:D9)</f>
+        <f t="shared" si="0"/>
         <v>152703</v>
       </c>
       <c r="E10" s="2">
-        <f>SUM(E8:E9)</f>
+        <f t="shared" si="0"/>
         <v>166761</v>
       </c>
       <c r="F10" s="2">
-        <f>SUM(F8:F9)</f>
+        <f t="shared" si="0"/>
         <v>195929</v>
       </c>
       <c r="G10" s="2">
-        <f>SUM(G8:G9)</f>
+        <f t="shared" si="0"/>
         <v>226954</v>
       </c>
       <c r="H10" s="9">
-        <f>SUM(H8:H9)</f>
+        <f t="shared" si="0"/>
         <v>242290</v>
       </c>
     </row>
@@ -892,27 +904,27 @@
         <v>7</v>
       </c>
       <c r="C14" s="2">
-        <f>C10-C12-C13</f>
+        <f t="shared" ref="C14:H14" si="1">C10-C12-C13</f>
         <v>4480</v>
       </c>
       <c r="D14" s="2">
-        <f>D10-D12-D13</f>
+        <f t="shared" si="1"/>
         <v>4737</v>
       </c>
       <c r="E14" s="2">
-        <f>E10-E12-E13</f>
+        <f t="shared" si="1"/>
         <v>5435</v>
       </c>
       <c r="F14" s="2">
-        <f>F10-F12-F13</f>
+        <f t="shared" si="1"/>
         <v>6708</v>
       </c>
       <c r="G14" s="2">
-        <f>G10-G12-G13</f>
+        <f t="shared" si="1"/>
         <v>7793</v>
       </c>
       <c r="H14" s="9">
-        <f>H10-H12-H13</f>
+        <f t="shared" si="1"/>
         <v>8114</v>
       </c>
     </row>
@@ -978,27 +990,27 @@
         <v>11</v>
       </c>
       <c r="C18" s="2">
-        <f>C14+C16+C17</f>
+        <f t="shared" ref="C18:H18" si="2">C14+C16+C17</f>
         <v>4442</v>
       </c>
       <c r="D18" s="2">
-        <f>D14+D16+D17</f>
+        <f t="shared" si="2"/>
         <v>4765</v>
       </c>
       <c r="E18" s="2">
-        <f>E14+E16+E17</f>
+        <f t="shared" si="2"/>
         <v>5367</v>
       </c>
       <c r="F18" s="2">
-        <f>F14+F16+F17</f>
+        <f t="shared" si="2"/>
         <v>6680</v>
       </c>
       <c r="G18" s="2">
-        <f>G14+G16+G17</f>
+        <f t="shared" si="2"/>
         <v>7840</v>
       </c>
       <c r="H18" s="9">
-        <f>H14+H16+H17</f>
+        <f t="shared" si="2"/>
         <v>8487</v>
       </c>
     </row>
@@ -1030,27 +1042,27 @@
         <v>13</v>
       </c>
       <c r="C20" s="2">
-        <f>C18-C19</f>
+        <f t="shared" ref="C20:H20" si="3">C18-C19</f>
         <v>3179</v>
       </c>
       <c r="D20" s="2">
-        <f>D18-D19</f>
+        <f t="shared" si="3"/>
         <v>3704</v>
       </c>
       <c r="E20" s="2">
-        <f>E18-E19</f>
+        <f t="shared" si="3"/>
         <v>4059</v>
       </c>
       <c r="F20" s="2">
-        <f>F18-F19</f>
+        <f t="shared" si="3"/>
         <v>5079</v>
       </c>
       <c r="G20" s="2">
-        <f>G18-G19</f>
+        <f t="shared" si="3"/>
         <v>5915</v>
       </c>
       <c r="H20" s="9">
-        <f>H18-H19</f>
+        <f t="shared" si="3"/>
         <v>6292</v>
       </c>
     </row>
@@ -1082,111 +1094,111 @@
         <v>15</v>
       </c>
       <c r="C22" s="3">
-        <f>C20+C21</f>
+        <f t="shared" ref="C22:H22" si="4">C20+C21</f>
         <v>3134</v>
       </c>
       <c r="D22" s="3">
-        <f>D20+D21</f>
+        <f t="shared" si="4"/>
         <v>3659</v>
       </c>
       <c r="E22" s="3">
-        <f>E20+E21</f>
+        <f t="shared" si="4"/>
         <v>4002</v>
       </c>
       <c r="F22" s="3">
-        <f>F20+F21</f>
+        <f t="shared" si="4"/>
         <v>5007</v>
       </c>
       <c r="G22" s="3">
-        <f>G20+G21</f>
+        <f t="shared" si="4"/>
         <v>5844</v>
       </c>
       <c r="H22" s="10">
-        <f>H20+H21</f>
+        <f t="shared" si="4"/>
         <v>6292</v>
       </c>
       <c r="I22" s="14">
-        <f>H22*1.15</f>
+        <f t="shared" ref="I22:AC22" si="5">H22*1.15</f>
         <v>7235.7999999999993</v>
       </c>
       <c r="J22" s="14">
-        <f>I22*1.15</f>
+        <f t="shared" si="5"/>
         <v>8321.1699999999983</v>
       </c>
       <c r="K22" s="14">
-        <f>J22*1.15</f>
+        <f t="shared" si="5"/>
         <v>9569.3454999999976</v>
       </c>
       <c r="L22" s="14">
-        <f>K22*1.15</f>
+        <f t="shared" si="5"/>
         <v>11004.747324999997</v>
       </c>
       <c r="M22" s="14">
-        <f>L22*1.15</f>
+        <f t="shared" si="5"/>
         <v>12655.459423749995</v>
       </c>
       <c r="N22" s="14">
-        <f>M22*1.15</f>
+        <f t="shared" si="5"/>
         <v>14553.778337312493</v>
       </c>
       <c r="O22" s="14">
-        <f>N22*1.15</f>
+        <f t="shared" si="5"/>
         <v>16736.845087909365</v>
       </c>
       <c r="P22" s="14">
-        <f>O22*1.15</f>
+        <f t="shared" si="5"/>
         <v>19247.37185109577</v>
       </c>
       <c r="Q22" s="14">
-        <f>P22*1.15</f>
+        <f t="shared" si="5"/>
         <v>22134.477628760134</v>
       </c>
       <c r="R22" s="14">
-        <f>Q22*1.15</f>
+        <f t="shared" si="5"/>
         <v>25454.649273074152</v>
       </c>
       <c r="S22" s="14">
-        <f>R22*1.15</f>
+        <f t="shared" si="5"/>
         <v>29272.846664035271</v>
       </c>
       <c r="T22" s="14">
-        <f>S22*1.15</f>
+        <f t="shared" si="5"/>
         <v>33663.773663640561</v>
       </c>
       <c r="U22" s="14">
-        <f>T22*1.15</f>
+        <f t="shared" si="5"/>
         <v>38713.339713186644</v>
       </c>
       <c r="V22" s="14">
-        <f>U22*1.15</f>
+        <f t="shared" si="5"/>
         <v>44520.340670164638</v>
       </c>
       <c r="W22" s="14">
-        <f>V22*1.15</f>
+        <f t="shared" si="5"/>
         <v>51198.391770689333</v>
       </c>
       <c r="X22" s="14">
-        <f>W22*1.15</f>
+        <f t="shared" si="5"/>
         <v>58878.150536292727</v>
       </c>
       <c r="Y22" s="14">
-        <f>X22*1.15</f>
+        <f t="shared" si="5"/>
         <v>67709.873116736635</v>
       </c>
       <c r="Z22" s="14">
-        <f>Y22*1.15</f>
+        <f t="shared" si="5"/>
         <v>77866.354084247127</v>
       </c>
       <c r="AA22" s="14">
-        <f>Z22*1.15</f>
+        <f t="shared" si="5"/>
         <v>89546.307196884183</v>
       </c>
       <c r="AB22" s="14">
-        <f>AA22*1.15</f>
+        <f t="shared" si="5"/>
         <v>102978.2532764168</v>
       </c>
       <c r="AC22" s="14">
-        <f>AB22*1.15</f>
+        <f t="shared" si="5"/>
         <v>118424.9912678793</v>
       </c>
     </row>
@@ -1195,27 +1207,27 @@
         <v>16</v>
       </c>
       <c r="C24" s="5">
-        <f>C14/C8</f>
+        <f t="shared" ref="C24:H24" si="6">C14/C8</f>
         <v>3.2361991996185911E-2</v>
       </c>
       <c r="D24" s="5">
-        <f>D14/D8</f>
+        <f t="shared" si="6"/>
         <v>3.1717229881286363E-2</v>
       </c>
       <c r="E24" s="5">
-        <f>E14/E8</f>
+        <f t="shared" si="6"/>
         <v>3.3298615365763999E-2</v>
       </c>
       <c r="F24" s="5">
-        <f>F14/F8</f>
+        <f t="shared" si="6"/>
         <v>3.492804032241268E-2</v>
       </c>
       <c r="G24" s="5">
-        <f>G14/G8</f>
+        <f t="shared" si="6"/>
         <v>3.4988551160598035E-2</v>
       </c>
       <c r="H24" s="11">
-        <f>H14/H8</f>
+        <f t="shared" si="6"/>
         <v>3.4134028858693363E-2</v>
       </c>
     </row>
@@ -1224,27 +1236,27 @@
         <v>17</v>
       </c>
       <c r="C25" s="5">
-        <f>C22/C8</f>
+        <f t="shared" ref="C25:H25" si="7">C22/C8</f>
         <v>2.2638947079474697E-2</v>
       </c>
       <c r="D25" s="5">
-        <f>D22/D8</f>
+        <f t="shared" si="7"/>
         <v>2.4499333784172853E-2</v>
       </c>
       <c r="E25" s="5">
-        <f>E22/E8</f>
+        <f t="shared" si="7"/>
         <v>2.4519054037495405E-2</v>
       </c>
       <c r="F25" s="5">
-        <f>F22/F8</f>
+        <f t="shared" si="7"/>
         <v>2.6071064086809821E-2</v>
       </c>
       <c r="G25" s="5">
-        <f>G22/G8</f>
+        <f t="shared" si="7"/>
         <v>2.6238046064742063E-2</v>
       </c>
       <c r="H25" s="11">
-        <f>H22/H8</f>
+        <f t="shared" si="7"/>
         <v>2.6469227209625173E-2</v>
       </c>
       <c r="I25" t="s">
@@ -1256,27 +1268,27 @@
         <v>20</v>
       </c>
       <c r="C26" s="5">
-        <f>C9/C22</f>
+        <f t="shared" ref="C26:H26" si="8">C9/C22</f>
         <v>1.0025526483726868</v>
       </c>
       <c r="D26" s="5">
-        <f>D9/D22</f>
+        <f t="shared" si="8"/>
         <v>0.91609729434271658</v>
       </c>
       <c r="E26" s="5">
-        <f>E9/E22</f>
+        <f t="shared" si="8"/>
         <v>0.88480759620189908</v>
       </c>
       <c r="F26" s="5">
-        <f>F9/F22</f>
+        <f t="shared" si="8"/>
         <v>0.77431595765927697</v>
       </c>
       <c r="G26" s="5">
-        <f>G9/G22</f>
+        <f t="shared" si="8"/>
         <v>0.7227926078028748</v>
       </c>
       <c r="H26" s="11">
-        <f>H9/H22</f>
+        <f t="shared" si="8"/>
         <v>0.72790845518118241</v>
       </c>
       <c r="I26" s="4">
@@ -1294,27 +1306,27 @@
         <v>18</v>
       </c>
       <c r="C27" s="5" t="e">
-        <f>(C8-B8)/B8</f>
+        <f t="shared" ref="C27:H27" si="9">(C8-B8)/B8</f>
         <v>#VALUE!</v>
       </c>
       <c r="D27" s="5">
-        <f>(D8-C8)/C8</f>
+        <f t="shared" si="9"/>
         <v>7.886068451391999E-2</v>
       </c>
       <c r="E27" s="5">
-        <f>(E8-D8)/D8</f>
+        <f t="shared" si="9"/>
         <v>9.2861781976685792E-2</v>
       </c>
       <c r="F27" s="5">
-        <f>(F8-E8)/E8</f>
+        <f t="shared" si="9"/>
         <v>0.17664501899277049</v>
       </c>
       <c r="G27" s="5">
-        <f>(G8-F8)/F8</f>
+        <f t="shared" si="9"/>
         <v>0.15973798762835065</v>
       </c>
       <c r="H27" s="11">
-        <f>(H8-G8)/G8</f>
+        <f t="shared" si="9"/>
         <v>6.7256319310375789E-2</v>
       </c>
     </row>
@@ -1323,27 +1335,27 @@
         <v>19</v>
       </c>
       <c r="C28" s="5" t="e">
-        <f>(C22-B22)/B22</f>
+        <f t="shared" ref="C28:H28" si="10">(C22-B22)/B22</f>
         <v>#VALUE!</v>
       </c>
       <c r="D28" s="5">
-        <f>(D22-C22)/C22</f>
+        <f t="shared" si="10"/>
         <v>0.16751754945756223</v>
       </c>
       <c r="E28" s="5">
-        <f>(E22-D22)/D22</f>
+        <f t="shared" si="10"/>
         <v>9.3741459415140754E-2</v>
       </c>
       <c r="F28" s="5">
-        <f>(F22-E22)/E22</f>
+        <f t="shared" si="10"/>
         <v>0.25112443778110943</v>
       </c>
       <c r="G28" s="5">
-        <f>(G22-F22)/F22</f>
+        <f t="shared" si="10"/>
         <v>0.16716596764529659</v>
       </c>
       <c r="H28" s="11">
-        <f>(H22-G22)/G22</f>
+        <f t="shared" si="10"/>
         <v>7.665982203969883E-2</v>
       </c>
       <c r="I28" s="15">
@@ -1408,12 +1420,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70A8BD7F-083A-468A-BF1A-3B0081F99387}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="14">
+        <f>Main!H10/Main!H2</f>
+        <v>278.17451205510906</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14">
+        <f>Main!H22/Main!H2</f>
+        <v>7.2238805970149258</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>